--- a/ABCL.xlsx
+++ b/ABCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF9D9FE-0EFF-4385-8236-55B0F9C19106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD27356-0415-0649-A5D1-D24B2F4A1003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="5700" windowWidth="18645" windowHeight="9315" xr2:uid="{FE36D645-8410-4180-9CAC-35B704723A88}"/>
+    <workbookView xWindow="-18160" yWindow="-20380" windowWidth="15700" windowHeight="17780" activeTab="1" xr2:uid="{FE36D645-8410-4180-9CAC-35B704723A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Price</t>
   </si>
@@ -183,6 +183,75 @@
   </si>
   <si>
     <t>Moderna</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>ABCL635</t>
+  </si>
+  <si>
+    <t>ABCL575</t>
+  </si>
+  <si>
+    <t>ABD-147</t>
+  </si>
+  <si>
+    <t>Invetx</t>
+  </si>
+  <si>
+    <t>OX40L</t>
+  </si>
+  <si>
+    <t>Atopic Dermatitis</t>
+  </si>
+  <si>
+    <t>Lilly</t>
+  </si>
+  <si>
+    <t>Biogen</t>
+  </si>
+  <si>
+    <t>DLL3</t>
+  </si>
+  <si>
+    <t>Abdera</t>
+  </si>
+  <si>
+    <t>PSMA/CD3</t>
+  </si>
+  <si>
+    <t>B7-H4/CD3</t>
+  </si>
+  <si>
+    <t>CD19/CD3</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Filing</t>
   </si>
 </sst>
 </file>
@@ -219,7 +288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -227,12 +296,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -250,6 +405,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -269,9 +434,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -309,7 +474,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -415,7 +580,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -557,7 +722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -565,121 +730,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A77B118-86A5-4BB4-B0F5-DF5AB0939AE2}">
-  <dimension ref="B2:O8"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1">
-        <v>10.47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="L2" s="1">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M3" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="3">
-        <v>311.48201699999998</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="L3" s="3">
+        <v>294.66553199999998</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M4" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="3">
-        <f>+N2*N3</f>
-        <v>3261.2167179900002</v>
-      </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="M5" t="s">
+      <c r="L4" s="3">
+        <f>+L2*L3</f>
+        <v>701.30396615999996</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="3">
-        <f>786.053+25+58.882</f>
-        <v>869.93499999999995</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
+      <c r="L5" s="3">
+        <f>760.585+25+65.938</f>
+        <v>851.52300000000002</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
+        <f>+L4-L5+L6</f>
+        <v>-150.21903384000007</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="3">
-        <f>+N4-N5+N6</f>
-        <v>2391.2817179900003</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
         <v>48</v>
       </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -688,28 +1005,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4240F2CB-B771-4FC8-9F4E-8864AF060D69}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="2"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
@@ -746,8 +1063,32 @@
       <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -758,7 +1099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>44</v>
       </c>
@@ -769,7 +1110,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -780,7 +1121,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -790,8 +1131,29 @@
       <c r="K6" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="2">
+        <v>7</v>
+      </c>
+      <c r="N6" s="2">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>13</v>
+      </c>
+      <c r="S6">
+        <v>13</v>
+      </c>
+      <c r="T6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -812,7 +1174,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -835,7 +1197,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -858,7 +1220,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
@@ -879,7 +1241,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
@@ -902,7 +1264,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
@@ -923,7 +1285,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
@@ -944,7 +1306,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
@@ -965,7 +1327,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
@@ -988,7 +1350,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1011,7 +1373,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1032,7 +1394,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
@@ -1055,7 +1417,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1076,7 +1438,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1099,7 +1461,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
@@ -1112,7 +1474,7 @@
         <v>0.53733118082383546</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>

--- a/ABCL.xlsx
+++ b/ABCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD27356-0415-0649-A5D1-D24B2F4A1003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F6B79C-1BF2-4A86-B119-9D1E2B83F09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18160" yWindow="-20380" windowWidth="15700" windowHeight="17780" activeTab="1" xr2:uid="{FE36D645-8410-4180-9CAC-35B704723A88}"/>
+    <workbookView xWindow="-43275" yWindow="345" windowWidth="42840" windowHeight="19110" xr2:uid="{FE36D645-8410-4180-9CAC-35B704723A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -409,19 +409,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E78D5A4D-8453-4B2A-B30C-0EEA7B2A17DE}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -732,20 +732,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A77B118-86A5-4BB4-B0F5-DF5AB0939AE2}">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
@@ -767,23 +767,21 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="H3" s="13"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -794,30 +792,28 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="F4" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+      <c r="H4" s="13"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
         <f>+L2*L3</f>
-        <v>701.30396615999996</v>
+        <v>825.06348959999991</v>
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -838,18 +834,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="G6" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="13"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -860,143 +852,106 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="18" t="s">
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="18" t="s">
+      <c r="G7" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="13"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="3">
         <f>+L4-L5+L6</f>
-        <v>-150.21903384000007</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+        <v>-26.459510400000113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="F10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="E11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
+      <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
+      <c r="E15" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="18" t="s">
+      <c r="E16" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16" t="s">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1007,26 +962,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4240F2CB-B771-4FC8-9F4E-8864AF060D69}">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1088,7 +1043,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>43</v>
       </c>
@@ -1099,7 +1054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>44</v>
       </c>
@@ -1110,7 +1065,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -1121,7 +1076,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>42</v>
       </c>
@@ -1153,7 +1108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1174,7 +1129,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1197,7 +1152,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1220,7 +1175,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1241,7 +1196,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1264,7 +1219,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1285,7 +1240,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
@@ -1306,7 +1261,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1327,7 +1282,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1350,7 +1305,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1373,7 +1328,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1394,7 +1349,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
@@ -1417,7 +1372,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1438,7 +1393,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
@@ -1461,7 +1416,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
@@ -1474,7 +1429,7 @@
         <v>0.53733118082383546</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
